--- a/private/concepts/seo/static/lolvvv/lolvvv - Web20 - {championName} Build - 5840900.xlsx
+++ b/private/concepts/seo/static/lolvvv/lolvvv - Web20 - {championName} Build - 5840900.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EF0029-2CB2-40A9-B20B-82A530C88D84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DD56AE-F8C9-4D67-B348-80A92366C9AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22365" yWindow="1080" windowWidth="27825" windowHeight="19005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="3675" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -288,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,12 +349,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF262626"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -403,7 +397,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -430,15 +424,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -452,6 +443,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -794,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,40 +809,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -879,16 +880,19 @@
       <c r="B6" s="2">
         <v>88</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="21" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="b">
@@ -905,10 +909,10 @@
       <c r="B7" s="3">
         <v>92</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -937,7 +941,7 @@
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -966,7 +970,7 @@
       <c r="C9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -986,24 +990,27 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="6">
         <v>63</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="21" t="s">
         <v>30</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
@@ -1012,22 +1019,25 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6">
         <v>76</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="21" t="s">
         <v>30</v>
       </c>
       <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="b">
@@ -1041,10 +1051,10 @@
       <c r="B12" s="4">
         <v>83</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -1067,7 +1077,7 @@
       <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -1090,14 +1100,17 @@
       <c r="B14" s="2">
         <v>93</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="21" t="s">
         <v>30</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -1113,7 +1126,7 @@
       <c r="C15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -1139,7 +1152,7 @@
       <c r="C16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -1165,7 +1178,7 @@
       <c r="C17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -1194,7 +1207,7 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -1214,7 +1227,7 @@
       <c r="C19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -1237,7 +1250,7 @@
       <c r="C20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -1263,7 +1276,7 @@
       <c r="C21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -1286,7 +1299,7 @@
       <c r="C22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -1315,7 +1328,7 @@
       <c r="C23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -1344,7 +1357,7 @@
       <c r="C24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -1373,7 +1386,7 @@
       <c r="C25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -1412,40 +1425,40 @@
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1929,8 +1942,24 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{3EA8A6E0-357A-499A-8FCF-6B50326F7586}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{33B0306A-498E-4197-9D88-11268C30E1F8}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{52077EA5-D21C-48D3-9B3D-0649E0AC5CF7}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{27F0B5E0-48DE-48AE-9492-258DB2FBEFE4}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{621C04C8-6D4E-4251-8228-42B611FA3ED5}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{4CD5D2A2-C709-4E88-9BC4-A03AD88ED149}"/>
+    <hyperlink ref="A10" r:id="rId7" xr:uid="{370B069D-48C4-4859-A473-216C15DFDFD8}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{95F6FAA5-43A1-4171-86BA-7917D8755552}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{8EAA8BC5-F9FA-4DF8-A0DB-468EA2A0C663}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{A8063CE4-04D1-4E5F-A40E-9B63CD3D5450}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{E53C5E9A-77FA-4BB3-B242-E2D4860235DB}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{873FB4BE-52F6-499B-8C42-5C570512CE0E}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{978C4615-2F9D-4889-B48A-A511C0E0EC45}"/>
+    <hyperlink ref="E14" r:id="rId14" xr:uid="{DA00450B-8B9E-40B7-BE1C-64A896250774}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/private/concepts/seo/static/lolvvv/lolvvv - Web20 - {championName} Build - 5840900.xlsx
+++ b/private/concepts/seo/static/lolvvv/lolvvv - Web20 - {championName} Build - 5840900.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DD56AE-F8C9-4D67-B348-80A92366C9AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1E88F2-1A3D-42D3-815E-EEAEC6B1FDB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3675" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2010" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -432,6 +432,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,16 +454,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -796,7 +800,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,40 +813,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -880,13 +884,13 @@
       <c r="B6" s="2">
         <v>88</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="17" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="b">
@@ -909,7 +913,7 @@
       <c r="B7" s="3">
         <v>92</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -990,19 +994,19 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="6">
         <v>63</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="17" t="s">
         <v>30</v>
       </c>
       <c r="F10" t="b">
@@ -1019,19 +1023,19 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6">
         <v>76</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="17" t="s">
         <v>30</v>
       </c>
       <c r="F11" t="b">
@@ -1045,13 +1049,13 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="4">
         <v>83</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -1083,6 +1087,7 @@
       <c r="E13" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="F13" s="23"/>
       <c r="G13" t="b">
         <v>1</v>
       </c>
@@ -1100,15 +1105,16 @@
       <c r="B14" s="2">
         <v>93</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="17" t="s">
         <v>30</v>
       </c>
+      <c r="F14" s="23"/>
       <c r="G14" t="b">
         <v>1</v>
       </c>
@@ -1117,7 +1123,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="6">
@@ -1126,13 +1132,16 @@
       <c r="C15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="17" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="b">
@@ -1218,20 +1227,23 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="6">
         <v>87</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="17" t="s">
         <v>30</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -1267,20 +1279,23 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="6">
         <v>68</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="17" t="s">
         <v>30</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
@@ -1425,40 +1440,40 @@
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1957,9 +1972,20 @@
     <hyperlink ref="C12" r:id="rId12" xr:uid="{873FB4BE-52F6-499B-8C42-5C570512CE0E}"/>
     <hyperlink ref="C14" r:id="rId13" xr:uid="{978C4615-2F9D-4889-B48A-A511C0E0EC45}"/>
     <hyperlink ref="E14" r:id="rId14" xr:uid="{DA00450B-8B9E-40B7-BE1C-64A896250774}"/>
+    <hyperlink ref="A12" r:id="rId15" xr:uid="{17275F18-93E0-4440-BD22-F931CC213D33}"/>
+    <hyperlink ref="D15" r:id="rId16" xr:uid="{002CAA8A-9A91-40B0-93D9-5DBCEE976EC5}"/>
+    <hyperlink ref="A15" r:id="rId17" xr:uid="{C38D8D58-D57A-4CFB-8131-CEC824506DF2}"/>
+    <hyperlink ref="E15" r:id="rId18" xr:uid="{0F38F8D5-BF9D-4A02-A1E0-6CE39B03D642}"/>
+    <hyperlink ref="A19" r:id="rId19" xr:uid="{31D26307-4EBB-49F9-A8F1-8E3060090CB8}"/>
+    <hyperlink ref="C19" r:id="rId20" xr:uid="{4178E223-B0FE-4009-914A-88048ADFE092}"/>
+    <hyperlink ref="D19" r:id="rId21" xr:uid="{9B33C9DB-71A4-4AAC-A576-2B28F431DAD4}"/>
+    <hyperlink ref="E19" r:id="rId22" xr:uid="{1B3DCB10-DD23-4E27-81AA-1199513CF636}"/>
+    <hyperlink ref="C21" r:id="rId23" xr:uid="{1069B70A-DAFE-4823-B1D1-F44757447DC3}"/>
+    <hyperlink ref="A21" r:id="rId24" xr:uid="{0AA6412C-1CBA-416E-B3C6-AD8F6DFCF146}"/>
+    <hyperlink ref="E21" r:id="rId25" xr:uid="{0065E1E8-4DEA-4DD1-86A0-2E8C8CCD0F14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 

--- a/private/concepts/seo/static/lolvvv/lolvvv - Web20 - {championName} Build - 5840900.xlsx
+++ b/private/concepts/seo/static/lolvvv/lolvvv - Web20 - {championName} Build - 5840900.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1E88F2-1A3D-42D3-815E-EEAEC6B1FDB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AC21E8-4D3B-4560-B110-DAE12A6FE4E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2010" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21375" yWindow="450" windowWidth="27825" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
   <si>
     <t>WEB 2.0 BLOG</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>DA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            LIVE LINK</t>
-  </si>
-  <si>
-    <t>USERNAME</t>
   </si>
   <si>
     <t>PASSWORD</t>
@@ -282,6 +276,51 @@
   </si>
   <si>
     <t>HasBlog</t>
+  </si>
+  <si>
+    <t>Suspended</t>
+  </si>
+  <si>
+    <t>Blog Article #1</t>
+  </si>
+  <si>
+    <t>Blog Article #2</t>
+  </si>
+  <si>
+    <t>https://apheliosbuild.wordpress.com/2021/01/27/how-to-play-graves-like-an-lec-pro/</t>
+  </si>
+  <si>
+    <t>http://ezreal-build.jigsy.com/entries/general/how-to-play-kha-zix-like-an-lec-pro</t>
+  </si>
+  <si>
+    <t>https://austinhunnter.wixsite.com/seraphine-build/post/how-to-build-seraphine</t>
+  </si>
+  <si>
+    <t>https://rell-build.my-free.website/league-of-legends/post/236330/how-to-build-viktor-like-an-lec-pro</t>
+  </si>
+  <si>
+    <t>http://ezreal-build.bravesites.com/entries/general/how-to-build-ashe-like-a-pro</t>
+  </si>
+  <si>
+    <t>https://settbuild.doodlekit.com/blog/entry/13102609/how-to-play-ashe-like-a-pro</t>
+  </si>
+  <si>
+    <t>https://viego-build.over-blog.com/2021/01/how-to-play-graves-like-an-lec-pro.html</t>
+  </si>
+  <si>
+    <t>https://aphelios-build.sitey.me/league-of-legends/post/236529/how-to-build-lucian</t>
+  </si>
+  <si>
+    <t>http://lillia-build.website2.me/league-of-legends/best-kha-zix-build-season-11</t>
+  </si>
+  <si>
+    <t>https://601144d284df0.site123.me/league-of-legends/how-to-play-ashe-like-a-pro</t>
+  </si>
+  <si>
+    <t>https://lilliabuild.shutterfly.com/21</t>
+  </si>
+  <si>
+    <t>https://yone-build.jimdofree.com/2021/01/27/how-to-play-maokai-like-an-lec-pro/</t>
   </si>
 </sst>
 </file>
@@ -308,14 +347,6 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -360,6 +391,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -392,56 +431,57 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,10 +494,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -797,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,231 +857,248 @@
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:12" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>88</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>92</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>65</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2">
-        <v>88</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="B9" s="2">
+        <v>92</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5">
+        <v>63</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3">
-        <v>92</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5">
+        <v>76</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8">
-        <v>65</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>92</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6">
-        <v>63</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6">
-        <v>76</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -1047,22 +1109,25 @@
       <c r="H11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3">
         <v>83</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -1071,50 +1136,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2">
         <v>86</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>93</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>93</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="23"/>
+      <c r="E14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="18"/>
       <c r="G14" t="b">
         <v>1</v>
       </c>
@@ -1122,22 +1190,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
         <v>65</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
@@ -1151,22 +1219,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="6">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5">
         <v>90</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
@@ -1176,25 +1244,28 @@
       <c r="I16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="K16" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5">
         <v>53</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -1205,43 +1276,46 @@
       <c r="I17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="8">
+      <c r="K17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="7">
         <v>71</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="6">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5">
         <v>87</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
@@ -1252,21 +1326,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="6">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5">
         <v>88</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>30</v>
+      <c r="C20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -1278,21 +1352,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="6">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5">
         <v>68</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>30</v>
+      <c r="C21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1303,23 +1377,26 @@
       <c r="I21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="K21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
         <v>53</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
@@ -1332,22 +1409,25 @@
       <c r="I22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="12">
+      <c r="K22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11">
         <v>83</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1361,22 +1441,25 @@
       <c r="I23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3">
+      <c r="K23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
         <v>50</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1390,22 +1473,23 @@
       <c r="I24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6">
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5">
         <v>74</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1419,262 +1503,270 @@
       <c r="I25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="K25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:12" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1">
+        <v>88</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="2">
+        <v>92</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="D35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="7">
+        <v>65</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="2">
-        <v>88</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B37" s="2">
+        <v>92</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="5">
+        <v>63</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="5">
+        <v>76</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="3">
-        <v>92</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="8">
-        <v>65</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="3">
-        <v>92</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="6">
-        <v>63</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="6">
-        <v>76</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>56</v>
+      <c r="E39" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="3">
         <v>83</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="C40" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>56</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="2">
         <v>86</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="C41" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="E41" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="H41" t="b">
         <v>1</v>
       </c>
@@ -1682,42 +1774,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1">
         <v>93</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>56</v>
+      <c r="C42" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="6">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="5">
         <v>65</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="C43" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="E43" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="H43" t="b">
         <v>1</v>
       </c>
@@ -1725,22 +1817,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="6">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="5">
         <v>90</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="6" t="s">
+      <c r="C44" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="E44" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="F44" t="b">
         <v>1</v>
       </c>
@@ -1748,22 +1840,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="6">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="5">
         <v>53</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="6" t="s">
+      <c r="C45" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="E45" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="H45" t="b">
         <v>1</v>
       </c>
@@ -1771,42 +1863,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="8">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="7">
         <v>71</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="6" t="s">
+      <c r="C46" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>56</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="6">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="5">
         <v>87</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="C47" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="E47" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
@@ -1814,130 +1906,130 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="6">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="5">
         <v>88</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>56</v>
+      <c r="C48" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="6">
+      <c r="A49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="5">
         <v>68</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="6" t="s">
+      <c r="C49" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="5">
+        <v>53</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="6">
-        <v>53</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="11">
+        <v>83</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="E51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="12">
-        <v>83</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="6" t="s">
+      <c r="B52" s="2">
+        <v>50</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H51" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="3">
-        <v>50</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>56</v>
+      <c r="E52" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" s="6">
+      <c r="A53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="5">
         <v>74</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="6" t="s">
+      <c r="C53" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>56</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>

--- a/private/concepts/seo/static/lolvvv/lolvvv - Web20 - {championName} Build - 5840900.xlsx
+++ b/private/concepts/seo/static/lolvvv/lolvvv - Web20 - {championName} Build - 5840900.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AC21E8-4D3B-4560-B110-DAE12A6FE4E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDAA334-5B87-439C-8468-DEB9AF079CF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21375" yWindow="450" windowWidth="27825" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23595" yWindow="1260" windowWidth="27285" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="101">
   <si>
     <t>WEB 2.0 BLOG</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>https://yone-build.jimdofree.com/2021/01/27/how-to-play-maokai-like-an-lec-pro/</t>
+  </si>
+  <si>
+    <t>Link set</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,6 +419,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +445,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -482,6 +491,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,15 +513,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -842,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:K25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,77 +869,80 @@
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" spans="1:12" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="23" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:13" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="20" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -956,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -984,11 +999,14 @@
       <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="22" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1016,11 +1034,11 @@
       <c r="I8" t="b">
         <v>1</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -1048,11 +1066,11 @@
       <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
@@ -1080,11 +1098,11 @@
       <c r="I10" t="b">
         <v>1</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
@@ -1109,11 +1127,11 @@
       <c r="H11" t="b">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>18</v>
       </c>
@@ -1136,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1162,11 +1180,11 @@
       <c r="I13" t="b">
         <v>1</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1190,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>14</v>
       </c>
@@ -1219,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
@@ -1244,11 +1262,11 @@
       <c r="I16" t="b">
         <v>1</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
@@ -1276,11 +1294,11 @@
       <c r="I17" t="b">
         <v>1</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1300,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>5</v>
       </c>
@@ -1326,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
@@ -1352,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>12</v>
       </c>
@@ -1377,11 +1395,14 @@
       <c r="I21" t="b">
         <v>1</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="22" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -1409,11 +1430,11 @@
       <c r="I22" t="b">
         <v>1</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -1441,11 +1462,11 @@
       <c r="I23" t="b">
         <v>1</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
@@ -1475,7 +1496,7 @@
       </c>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
@@ -1503,100 +1524,103 @@
       <c r="I25" t="b">
         <v>1</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-    </row>
-    <row r="33" spans="1:12" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="23" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33" spans="1:13" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="24" t="s">
+      <c r="I33" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="J33" s="24" t="s">
+      <c r="J33" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="K33" s="24" t="s">
+      <c r="K33" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="L33" s="24" t="s">
+      <c r="L33" s="20" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -1619,14 +1643,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="2">
         <v>92</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="24" t="s">
         <v>59</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -1635,6 +1659,9 @@
       <c r="E35" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
       <c r="H35" t="b">
         <v>1</v>
       </c>
@@ -1642,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>9</v>
       </c>
@@ -1658,21 +1685,24 @@
       <c r="E36" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="2">
         <v>92</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -1688,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>10</v>
       </c>
@@ -1711,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -1731,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>18</v>
       </c>
@@ -1751,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>19</v>
       </c>
@@ -1774,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>8</v>
       </c>
@@ -1794,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>14</v>
       </c>
@@ -1817,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>7</v>
       </c>
@@ -1840,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>11</v>
       </c>
@@ -1863,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>6</v>
       </c>
@@ -1883,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2075,9 +2105,11 @@
     <hyperlink ref="C21" r:id="rId23" xr:uid="{1069B70A-DAFE-4823-B1D1-F44757447DC3}"/>
     <hyperlink ref="A21" r:id="rId24" xr:uid="{0AA6412C-1CBA-416E-B3C6-AD8F6DFCF146}"/>
     <hyperlink ref="E21" r:id="rId25" xr:uid="{0065E1E8-4DEA-4DD1-86A0-2E8C8CCD0F14}"/>
+    <hyperlink ref="C35" r:id="rId26" xr:uid="{70701CC3-AF0F-4D1F-8DE7-E012633A9F47}"/>
+    <hyperlink ref="C37" r:id="rId27" xr:uid="{54BB1307-2B12-45C8-8A21-93E43434467B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 
